--- a/Data/Silver/cornerballen_cleaned.xlsx
+++ b/Data/Silver/cornerballen_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosyn\Desktop\thesis\thesis_code\Data\Silver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4BBC8-26C8-4386-A165-28215D6BDD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C85CAD-A219-403F-8A6A-E6D3E560F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,6 +947,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1293,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="I423" sqref="I423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
